--- a/传感器/连续物位测量/投入式压力变送器/迈安德物料定义-01属性表-外购设备-投入式压力变送器.xlsx
+++ b/传感器/连续物位测量/投入式压力变送器/迈安德物料定义-01属性表-外购设备-投入式压力变送器.xlsx
@@ -1124,7 +1124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2715,44 +2715,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>A307</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>SealingRing</t>
-        </is>
-      </c>
-      <c r="D39">
-        <f>"my"&amp;B39&amp;"_"&amp;C39</f>
-        <v/>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" s="1">
-        <f>CONCATENATE(A39," ",D39," ",E39," ","="," ","'",G39,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I39" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D39,,".",G39," ="," ",F39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="H40" s="1" t="n"/>
-      <c r="I40" s="2" t="n"/>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
